--- a/data/trans_orig/IP37-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP37-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{139FE381-500A-4AA2-A796-CF9784730B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37057708-56F0-4C95-9A02-903E10F93714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{303B5DA9-A5FF-4443-B0AE-496757A62588}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8E17303-4F18-4EB7-9B7F-5D6E03021F90}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
   <si>
     <t>Adultos según si han trabajado anteriormente en 2007 (Tasa respuesta: 44,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,16 +77,16 @@
     <t>68,75%</t>
   </si>
   <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>83,74%</t>
   </si>
   <si>
-    <t>53,14%</t>
+    <t>46,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,952 +95,976 @@
     <t>76,63%</t>
   </si>
   <si>
-    <t>58,44%</t>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2012 (Tasa respuesta: 54,79%)</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2016 (Tasa respuesta: 50,09%)</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2012 (Tasa respuesta: 54,79%)</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2015 (Tasa respuesta: 50,09%)</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
+    <t>55,93%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
   </si>
   <si>
     <t>72,46%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>62,62%</t>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>37,38%</t>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>27,86%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>68,38%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
   </si>
   <si>
     <t>81,44%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>74,58%</t>
   </si>
   <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>18,56%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
   </si>
   <si>
     <t>73,67%</t>
   </si>
   <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>70,22%</t>
   </si>
   <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>78,35%</t>
   </si>
   <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
   </si>
   <si>
     <t>78,64%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>21,36%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>73,19%</t>
   </si>
   <si>
-    <t>69,44%</t>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>76,4%</t>
   </si>
   <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>74,78%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>30,56%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>Adultos según si han trabajado anteriormente en 2023 (Tasa respuesta: 3,91%)</t>
@@ -1061,151 +1085,145 @@
     <t>59,37%</t>
   </si>
   <si>
-    <t>20,08%</t>
+    <t>13,66%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>53,67%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>40,63%</t>
   </si>
   <si>
-    <t>79,92%</t>
+    <t>86,34%</t>
   </si>
   <si>
     <t>49,65%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>46,33%</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>50,79%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>54,0%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>51,96%</t>
   </si>
   <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>30,09%</t>
   </si>
   <si>
     <t>49,21%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>46,0%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>48,04%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
+    <t>69,91%</t>
   </si>
   <si>
     <t>54,28%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>45,01%</t>
+    <t>39,85%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>45,72%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>54,99%</t>
+    <t>60,15%</t>
   </si>
   <si>
     <t>73,73%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>62,16%</t>
@@ -1214,16 +1232,13 @@
     <t>12,43%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
   </si>
   <si>
     <t>37,84%</t>
@@ -1232,70 +1247,61 @@
     <t>87,57%</t>
   </si>
   <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>54,45%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>33,3%</t>
   </si>
   <si>
     <t>31,78%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
   </si>
   <si>
     <t>45,55%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>66,7%</t>
   </si>
   <si>
     <t>68,22%</t>
   </si>
   <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1047AEEA-CFAD-4982-963D-08AC14E51F37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0AF296-7785-445E-8BD9-E4C4237F22C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2770,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA86605-CB05-43CF-AFA6-CBB1697B6020}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9177197E-B605-479E-A086-8EB664B6800A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3067,10 +3073,10 @@
         <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>154</v>
@@ -3079,13 +3085,13 @@
         <v>109988</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3106,13 @@
         <v>20596</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -3115,13 +3121,13 @@
         <v>14474</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>49</v>
@@ -3130,13 +3136,13 @@
         <v>35070</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3210,13 @@
         <v>100418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>143</v>
@@ -3219,13 +3225,13 @@
         <v>91857</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>289</v>
@@ -3234,13 +3240,13 @@
         <v>192275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3261,13 @@
         <v>25530</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -3270,13 +3276,13 @@
         <v>26041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -3285,13 +3291,13 @@
         <v>51571</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3365,13 @@
         <v>61785</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>95</v>
@@ -3374,13 +3380,13 @@
         <v>60542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
@@ -3389,13 +3395,13 @@
         <v>122327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3416,13 @@
         <v>30828</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -3425,13 +3431,13 @@
         <v>22107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -3440,13 +3446,13 @@
         <v>52935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3520,13 @@
         <v>74458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>108</v>
@@ -3529,13 +3535,13 @@
         <v>82508</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>209</v>
@@ -3544,13 +3550,13 @@
         <v>156965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3571,13 @@
         <v>29287</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3580,13 +3586,13 @@
         <v>23792</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -3595,13 +3601,13 @@
         <v>53080</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3675,13 @@
         <v>304222</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>434</v>
@@ -3684,13 +3690,13 @@
         <v>299556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>866</v>
@@ -3699,13 +3705,13 @@
         <v>603778</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3726,13 @@
         <v>110471</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>125</v>
@@ -3735,13 +3741,13 @@
         <v>89541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>284</v>
@@ -3750,13 +3756,13 @@
         <v>200012</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF75632-971B-4D4B-BECC-CC7CAF2920A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0327F8-D09E-48B9-85C8-0F5A075A72F8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,10 +3963,10 @@
         <v>10045</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -3972,13 +3978,13 @@
         <v>9395</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -3987,13 +3993,13 @@
         <v>19440</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4014,13 @@
         <v>1509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4023,13 +4029,13 @@
         <v>3118</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4038,13 +4044,13 @@
         <v>4628</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4118,13 @@
         <v>50124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -4127,13 +4133,13 @@
         <v>46634</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>135</v>
@@ -4142,13 +4148,13 @@
         <v>96757</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4169,13 @@
         <v>19050</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -4178,13 +4184,13 @@
         <v>18323</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>52</v>
@@ -4193,13 +4199,13 @@
         <v>37373</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4273,13 @@
         <v>83288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -4282,13 +4288,13 @@
         <v>89556</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>269</v>
@@ -4297,13 +4303,13 @@
         <v>172845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4324,13 @@
         <v>38511</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -4333,13 +4339,13 @@
         <v>20404</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>86</v>
@@ -4348,13 +4354,13 @@
         <v>58914</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4428,13 @@
         <v>58604</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -4437,13 +4443,13 @@
         <v>54686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>180</v>
@@ -4452,13 +4458,13 @@
         <v>113291</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4479,13 @@
         <v>20950</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -4488,13 +4494,13 @@
         <v>23188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>67</v>
@@ -4503,13 +4509,13 @@
         <v>44137</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4583,13 @@
         <v>66415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -4592,13 +4598,13 @@
         <v>76542</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -4607,13 +4613,13 @@
         <v>142957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4634,13 @@
         <v>18347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H17" s="7">
         <v>28</v>
@@ -4643,13 +4649,13 @@
         <v>20482</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4658,13 +4664,13 @@
         <v>38829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4738,13 @@
         <v>268476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>420</v>
@@ -4747,13 +4753,13 @@
         <v>276814</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>802</v>
@@ -4762,13 +4768,13 @@
         <v>545289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4789,13 @@
         <v>98366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>124</v>
@@ -4798,13 +4804,13 @@
         <v>85515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M20" s="7">
         <v>263</v>
@@ -4813,13 +4819,13 @@
         <v>183882</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D3FD8D-67E2-4C70-A53F-D1119F7E71B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDD3656-3598-4533-9817-A9193D957229}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,7 +4919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5018,13 +5024,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5036,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>30</v>
@@ -5051,7 +5057,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>30</v>
@@ -5067,13 +5073,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5085,10 +5091,10 @@
         <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5100,10 +5106,10 @@
         <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5122,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -5169,10 +5175,10 @@
         <v>2169</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -5184,13 +5190,13 @@
         <v>3161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5199,13 +5205,13 @@
         <v>5330</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5226,13 @@
         <v>1484</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -5235,13 +5241,13 @@
         <v>3118</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5250,13 +5256,13 @@
         <v>4602</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5330,13 @@
         <v>6106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5339,13 +5345,13 @@
         <v>3731</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -5354,13 +5360,13 @@
         <v>9836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5381,13 @@
         <v>5916</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -5390,13 +5396,13 @@
         <v>3177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>13</v>
@@ -5405,13 +5411,13 @@
         <v>9093</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5485,13 @@
         <v>2740</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5494,13 +5500,13 @@
         <v>800</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5509,13 +5515,13 @@
         <v>3540</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5536,13 @@
         <v>2308</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5545,10 +5551,10 @@
         <v>7628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -5560,13 +5566,13 @@
         <v>9936</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,7 +5640,7 @@
         <v>2171</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>25</v>
@@ -5649,13 +5655,13 @@
         <v>779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5664,13 +5670,13 @@
         <v>2951</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,7 +5691,7 @@
         <v>1322</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>25</v>
@@ -5700,10 +5706,10 @@
         <v>5488</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -5715,13 +5721,13 @@
         <v>6810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>398</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5795,13 @@
         <v>13186</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>167</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5804,13 +5810,13 @@
         <v>9043</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -5819,13 +5825,13 @@
         <v>22230</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5846,13 @@
         <v>11030</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>177</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -5855,13 +5861,13 @@
         <v>19412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -5870,13 +5876,13 @@
         <v>30441</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP37-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP37-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37057708-56F0-4C95-9A02-903E10F93714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C061FF0C-F24C-4AA4-9BA3-81DAF421FAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8E17303-4F18-4EB7-9B7F-5D6E03021F90}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BFDC64F3-5301-4AA9-998C-1649F159E1F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
   <si>
     <t>Adultos según si han trabajado anteriormente en 2007 (Tasa respuesta: 44,11%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1240 +68,1093 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>43,94%</t>
   </si>
   <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2012 (Tasa respuesta: 54,79%)</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2016 (Tasa respuesta: 50,09%)</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>Adultos según si han trabajado anteriormente en 2023 (Tasa respuesta: 34,06%)</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>36,34%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2012 (Tasa respuesta: 54,79%)</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>67,98%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2016 (Tasa respuesta: 50,09%)</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>Adultos según si han trabajado anteriormente en 2023 (Tasa respuesta: 3,91%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0AF296-7785-445E-8BD9-E4C4237F22C3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89B0DC9-8F39-499C-AC82-2703DFD0D529}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1831,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>7092</v>
+        <v>41942</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1846,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I4" s="7">
-        <v>9566</v>
+        <v>51430</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1861,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="N4" s="7">
-        <v>16659</v>
+        <v>93372</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1882,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>3224</v>
+        <v>28709</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1897,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>1858</v>
+        <v>25747</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1912,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="N5" s="7">
-        <v>5081</v>
+        <v>54456</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1933,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="D6" s="7">
-        <v>10316</v>
+        <v>70651</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1948,10 +1801,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="I6" s="7">
-        <v>11424</v>
+        <v>77177</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1963,10 +1816,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="N6" s="7">
-        <v>21740</v>
+        <v>147828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1986,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D7" s="7">
-        <v>44337</v>
+        <v>49845</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2001,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I7" s="7">
-        <v>32376</v>
+        <v>65410</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2016,10 +1869,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="N7" s="7">
-        <v>76714</v>
+        <v>115255</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2037,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>22524</v>
+        <v>38969</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2052,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I8" s="7">
-        <v>26851</v>
+        <v>36166</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2067,10 +1920,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="N8" s="7">
-        <v>49375</v>
+        <v>75135</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2088,10 +1941,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="D9" s="7">
-        <v>66861</v>
+        <v>88814</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2103,10 +1956,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="I9" s="7">
-        <v>59227</v>
+        <v>101576</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2118,10 +1971,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>295</v>
       </c>
       <c r="N9" s="7">
-        <v>126089</v>
+        <v>190390</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2141,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>65410</v>
+        <v>41880</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2156,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>49845</v>
+        <v>42502</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2171,10 +2024,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="N10" s="7">
-        <v>115255</v>
+        <v>84383</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2192,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>36166</v>
+        <v>24054</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2207,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>38969</v>
+        <v>25223</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2222,10 +2075,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="N11" s="7">
-        <v>75135</v>
+        <v>49277</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2243,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>101576</v>
+        <v>65934</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2258,10 +2111,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="I12" s="7">
-        <v>88814</v>
+        <v>67725</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2273,10 +2126,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="N12" s="7">
-        <v>190390</v>
+        <v>133660</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2296,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>42502</v>
+        <v>50634</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2311,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>41880</v>
+        <v>41657</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2326,10 +2179,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N13" s="7">
-        <v>84383</v>
+        <v>92291</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2347,10 +2200,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" s="7">
-        <v>25223</v>
+        <v>25455</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2362,10 +2215,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>24054</v>
+        <v>28808</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2377,10 +2230,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N14" s="7">
-        <v>49277</v>
+        <v>54263</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2398,10 +2251,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7">
-        <v>67725</v>
+        <v>76089</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2413,10 +2266,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I15" s="7">
-        <v>65934</v>
+        <v>70465</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2428,10 +2281,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N15" s="7">
-        <v>133660</v>
+        <v>146554</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2445,55 +2298,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="D16" s="7">
-        <v>41657</v>
+        <v>184301</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>303</v>
+      </c>
+      <c r="I16" s="7">
+        <v>200999</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>66</v>
-      </c>
-      <c r="I16" s="7">
-        <v>50634</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>578</v>
+      </c>
+      <c r="N16" s="7">
+        <v>385300</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>128</v>
-      </c>
-      <c r="N16" s="7">
-        <v>92291</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,49 +2355,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="D17" s="7">
-        <v>28808</v>
+        <v>117187</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>174</v>
+      </c>
+      <c r="I17" s="7">
+        <v>115944</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>33</v>
-      </c>
-      <c r="I17" s="7">
-        <v>25455</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>350</v>
+      </c>
+      <c r="N17" s="7">
+        <v>233131</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>76</v>
-      </c>
-      <c r="N17" s="7">
-        <v>54263</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,10 +2406,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>105</v>
+        <v>451</v>
       </c>
       <c r="D18" s="7">
-        <v>70465</v>
+        <v>301488</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2568,10 +2421,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>99</v>
+        <v>477</v>
       </c>
       <c r="I18" s="7">
-        <v>76089</v>
+        <v>316943</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2583,10 +2436,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>204</v>
+        <v>928</v>
       </c>
       <c r="N18" s="7">
-        <v>146554</v>
+        <v>618431</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2599,171 +2452,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>303</v>
-      </c>
-      <c r="D19" s="7">
-        <v>200999</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>275</v>
-      </c>
-      <c r="I19" s="7">
-        <v>184301</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>578</v>
-      </c>
-      <c r="N19" s="7">
-        <v>385300</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>174</v>
-      </c>
-      <c r="D20" s="7">
-        <v>115944</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>176</v>
-      </c>
-      <c r="I20" s="7">
-        <v>117187</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>350</v>
-      </c>
-      <c r="N20" s="7">
-        <v>233131</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>477</v>
-      </c>
-      <c r="D21" s="7">
-        <v>316943</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>451</v>
-      </c>
-      <c r="I21" s="7">
-        <v>301488</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>928</v>
-      </c>
-      <c r="N21" s="7">
-        <v>618431</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2776,8 +2473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9177197E-B605-479E-A086-8EB664B6800A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC44BF2-F09B-466A-BCDF-84ADA1357423}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2793,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2894,49 +2591,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D4" s="7">
-        <v>9708</v>
+        <v>64648</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="I4" s="7">
-        <v>12514</v>
+        <v>67562</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="N4" s="7">
-        <v>22222</v>
+        <v>132210</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,49 +2642,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>4230</v>
+        <v>17601</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="I5" s="7">
-        <v>3127</v>
+        <v>24826</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="N5" s="7">
-        <v>7357</v>
+        <v>42427</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="D6" s="7">
-        <v>13938</v>
+        <v>82249</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3011,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="I6" s="7">
-        <v>15641</v>
+        <v>92388</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3026,10 +2723,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="N6" s="7">
-        <v>29579</v>
+        <v>174637</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3049,49 +2746,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="D7" s="7">
-        <v>57854</v>
+        <v>91857</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
         <v>146</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="7">
-        <v>73</v>
-      </c>
       <c r="I7" s="7">
-        <v>52134</v>
+        <v>100418</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>154</v>
+        <v>289</v>
       </c>
       <c r="N7" s="7">
-        <v>109988</v>
+        <v>192275</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,49 +2797,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7">
-        <v>20596</v>
+        <v>26041</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>14474</v>
+        <v>25530</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N8" s="7">
-        <v>35070</v>
+        <v>51571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="D9" s="7">
-        <v>78450</v>
+        <v>117898</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3166,10 +2863,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="I9" s="7">
-        <v>66608</v>
+        <v>125948</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3181,10 +2878,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="N9" s="7">
-        <v>145058</v>
+        <v>243846</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3204,49 +2901,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>95</v>
+      </c>
+      <c r="D10" s="7">
+        <v>60542</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="7">
-        <v>100418</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="H10" s="7">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>91857</v>
+        <v>61785</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>289</v>
+        <v>188</v>
       </c>
       <c r="N10" s="7">
-        <v>192275</v>
+        <v>122327</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,49 +2952,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>25530</v>
+        <v>22107</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>26041</v>
+        <v>30828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>51571</v>
+        <v>52935</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7">
-        <v>125948</v>
+        <v>82649</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3321,10 +3018,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="I12" s="7">
-        <v>117898</v>
+        <v>92613</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3336,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>365</v>
+        <v>270</v>
       </c>
       <c r="N12" s="7">
-        <v>243846</v>
+        <v>175262</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3359,49 +3056,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D13" s="7">
-        <v>61785</v>
+        <v>82508</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I13" s="7">
-        <v>60542</v>
+        <v>74458</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="N13" s="7">
-        <v>122327</v>
+        <v>156965</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,49 +3107,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>30828</v>
+        <v>23792</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>22107</v>
+        <v>29287</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="N14" s="7">
-        <v>52935</v>
+        <v>53080</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,10 +3158,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>92613</v>
+        <v>106300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3476,10 +3173,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I15" s="7">
-        <v>82649</v>
+        <v>103745</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3491,10 +3188,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="N15" s="7">
-        <v>175262</v>
+        <v>210045</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3508,55 +3205,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>101</v>
+        <v>434</v>
       </c>
       <c r="D16" s="7">
-        <v>74458</v>
+        <v>299556</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>108</v>
+        <v>432</v>
       </c>
       <c r="I16" s="7">
-        <v>82508</v>
+        <v>304222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>209</v>
+        <v>866</v>
       </c>
       <c r="N16" s="7">
-        <v>156965</v>
+        <v>603778</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,49 +3262,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7">
-        <v>29287</v>
+        <v>89541</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="I17" s="7">
-        <v>23792</v>
+        <v>110471</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="N17" s="7">
-        <v>53080</v>
+        <v>200012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,10 +3313,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>140</v>
+        <v>559</v>
       </c>
       <c r="D18" s="7">
-        <v>103745</v>
+        <v>389097</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3631,10 +3328,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>138</v>
+        <v>591</v>
       </c>
       <c r="I18" s="7">
-        <v>106300</v>
+        <v>414693</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3646,10 +3343,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>278</v>
+        <v>1150</v>
       </c>
       <c r="N18" s="7">
-        <v>210045</v>
+        <v>803790</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3662,171 +3359,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>432</v>
-      </c>
-      <c r="D19" s="7">
-        <v>304222</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="7">
-        <v>434</v>
-      </c>
-      <c r="I19" s="7">
-        <v>299556</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="7">
-        <v>866</v>
-      </c>
-      <c r="N19" s="7">
-        <v>603778</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>159</v>
-      </c>
-      <c r="D20" s="7">
-        <v>110471</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="7">
-        <v>125</v>
-      </c>
-      <c r="I20" s="7">
-        <v>89541</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M20" s="7">
-        <v>284</v>
-      </c>
-      <c r="N20" s="7">
-        <v>200012</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>591</v>
-      </c>
-      <c r="D21" s="7">
-        <v>414693</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>559</v>
-      </c>
-      <c r="I21" s="7">
-        <v>389097</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1150</v>
-      </c>
-      <c r="N21" s="7">
-        <v>803790</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3839,8 +3380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0327F8-D09E-48B9-85C8-0F5A075A72F8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F464ECB-0BAB-49D0-9964-7B726AFA6F48}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3856,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,49 +3498,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>10045</v>
+        <v>56029</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>9395</v>
+        <v>60169</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="N4" s="7">
-        <v>19440</v>
+        <v>116197</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,49 +3549,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>1509</v>
+        <v>21441</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>3118</v>
+        <v>20559</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="N5" s="7">
-        <v>4628</v>
+        <v>42001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D6" s="7">
-        <v>11554</v>
+        <v>77470</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4074,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="I6" s="7">
-        <v>12513</v>
+        <v>80728</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4089,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="N6" s="7">
-        <v>24068</v>
+        <v>158198</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4112,49 +3653,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D7" s="7">
-        <v>50124</v>
+        <v>89556</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="I7" s="7">
-        <v>46634</v>
+        <v>83288</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="N7" s="7">
-        <v>96757</v>
+        <v>172845</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,49 +3704,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>19050</v>
+        <v>20404</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I8" s="7">
-        <v>18323</v>
+        <v>38511</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="N8" s="7">
-        <v>37373</v>
+        <v>58914</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="D9" s="7">
-        <v>69174</v>
+        <v>109960</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4229,10 +3770,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="I9" s="7">
-        <v>64957</v>
+        <v>121799</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4244,10 +3785,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>187</v>
+        <v>355</v>
       </c>
       <c r="N9" s="7">
-        <v>134130</v>
+        <v>231759</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4267,49 +3808,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>83288</v>
+        <v>54686</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7">
-        <v>89556</v>
+        <v>58604</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="N10" s="7">
-        <v>172845</v>
+        <v>113291</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,49 +3859,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>38511</v>
+        <v>23188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>20404</v>
+        <v>20950</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="N11" s="7">
-        <v>58914</v>
+        <v>44137</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7">
-        <v>121799</v>
+        <v>77874</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4384,10 +3925,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="I12" s="7">
-        <v>109960</v>
+        <v>79554</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4399,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="N12" s="7">
-        <v>231759</v>
+        <v>157428</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4422,49 +3963,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>58604</v>
+        <v>76542</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>54686</v>
+        <v>66415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="N13" s="7">
-        <v>113291</v>
+        <v>142957</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,49 +4014,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>20950</v>
+        <v>20482</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>23188</v>
+        <v>18347</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="N14" s="7">
-        <v>44137</v>
+        <v>38829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,10 +4065,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D15" s="7">
-        <v>79554</v>
+        <v>97024</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4539,10 +4080,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="I15" s="7">
-        <v>77874</v>
+        <v>84762</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4554,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N15" s="7">
-        <v>157428</v>
+        <v>181786</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4571,55 +4112,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="D16" s="7">
-        <v>66415</v>
+        <v>276814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>104</v>
+        <v>382</v>
       </c>
       <c r="I16" s="7">
-        <v>76542</v>
+        <v>268476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
-        <v>197</v>
+        <v>802</v>
       </c>
       <c r="N16" s="7">
-        <v>142957</v>
+        <v>545289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,49 +4169,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7">
-        <v>18347</v>
+        <v>85515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="I17" s="7">
-        <v>20482</v>
+        <v>98366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="N17" s="7">
-        <v>38829</v>
+        <v>183882</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,10 +4220,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>118</v>
+        <v>544</v>
       </c>
       <c r="D18" s="7">
-        <v>84762</v>
+        <v>362329</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4694,10 +4235,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>132</v>
+        <v>521</v>
       </c>
       <c r="I18" s="7">
-        <v>97024</v>
+        <v>366842</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4709,10 +4250,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>250</v>
+        <v>1065</v>
       </c>
       <c r="N18" s="7">
-        <v>181786</v>
+        <v>729171</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4725,171 +4266,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>382</v>
-      </c>
-      <c r="D19" s="7">
-        <v>268476</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H19" s="7">
-        <v>420</v>
-      </c>
-      <c r="I19" s="7">
-        <v>276814</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M19" s="7">
-        <v>802</v>
-      </c>
-      <c r="N19" s="7">
-        <v>545289</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>139</v>
-      </c>
-      <c r="D20" s="7">
-        <v>98366</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H20" s="7">
-        <v>124</v>
-      </c>
-      <c r="I20" s="7">
-        <v>85515</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="M20" s="7">
-        <v>263</v>
-      </c>
-      <c r="N20" s="7">
-        <v>183882</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>521</v>
-      </c>
-      <c r="D21" s="7">
-        <v>366842</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>544</v>
-      </c>
-      <c r="I21" s="7">
-        <v>362329</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="N21" s="7">
-        <v>729171</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4902,8 +4287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDD3656-3598-4533-9817-A9193D957229}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8FBF83-1E22-4280-919C-BDDDF5798EC0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4919,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5020,47 +4405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32463</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>573</v>
+        <v>38249</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N4" s="7">
-        <v>573</v>
+        <v>70711</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,47 +4456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>17223</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>10163</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>27386</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,23 +4507,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="D6" s="7">
+        <v>49686</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>343</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>343</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>343</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7">
-        <v>573</v>
+        <v>48412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5146,10 +4537,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="N6" s="7">
-        <v>573</v>
+        <v>98097</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5169,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>2169</v>
+        <v>48068</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>3161</v>
+        <v>54862</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="N7" s="7">
-        <v>5330</v>
+        <v>102930</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>1484</v>
+        <v>16254</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>3118</v>
+        <v>25840</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="N8" s="7">
-        <v>4602</v>
+        <v>42094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,10 +4662,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="D9" s="7">
-        <v>3653</v>
+        <v>64322</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5286,10 +4677,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="I9" s="7">
-        <v>6279</v>
+        <v>80702</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5301,10 +4692,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="N9" s="7">
-        <v>9932</v>
+        <v>145024</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5324,49 +4715,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>6106</v>
+        <v>69258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>3731</v>
+        <v>46238</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="N10" s="7">
-        <v>9836</v>
+        <v>115495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>5916</v>
+        <v>23804</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>3177</v>
+        <v>18850</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>9093</v>
+        <v>42655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D12" s="7">
-        <v>12022</v>
+        <v>93062</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5441,10 +4832,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="I12" s="7">
-        <v>6908</v>
+        <v>65088</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5456,10 +4847,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="N12" s="7">
-        <v>18929</v>
+        <v>158150</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5479,49 +4870,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7">
-        <v>2740</v>
+        <v>30668</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>800</v>
+        <v>40617</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>3540</v>
+        <v>71285</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>2308</v>
+        <v>19906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>7628</v>
+        <v>21606</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N14" s="7">
-        <v>9936</v>
+        <v>41512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,10 +4972,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D15" s="7">
-        <v>5048</v>
+        <v>50574</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5596,10 +4987,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>8428</v>
+        <v>62223</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5611,10 +5002,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="N15" s="7">
-        <v>13476</v>
+        <v>112797</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5628,55 +5019,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>214</v>
       </c>
       <c r="D16" s="7">
-        <v>2171</v>
+        <v>180457</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="I16" s="7">
-        <v>779</v>
+        <v>179964</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>25</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>450</v>
       </c>
       <c r="N16" s="7">
-        <v>2951</v>
+        <v>360421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,49 +5076,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7">
-        <v>1322</v>
+        <v>77187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7">
-        <v>5488</v>
+        <v>76460</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>16</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="N17" s="7">
-        <v>6810</v>
+        <v>153647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>324</v>
       </c>
       <c r="D18" s="7">
-        <v>3493</v>
+        <v>257644</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5751,10 +5142,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="I18" s="7">
-        <v>6267</v>
+        <v>256424</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5766,10 +5157,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>12</v>
+        <v>654</v>
       </c>
       <c r="N18" s="7">
-        <v>9761</v>
+        <v>514068</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5782,171 +5173,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>13186</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="7">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9043</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="M19" s="7">
-        <v>31</v>
-      </c>
-      <c r="N19" s="7">
-        <v>22230</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7">
-        <v>11030</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H20" s="7">
-        <v>28</v>
-      </c>
-      <c r="I20" s="7">
-        <v>19412</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="M20" s="7">
-        <v>44</v>
-      </c>
-      <c r="N20" s="7">
-        <v>30441</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>33</v>
-      </c>
-      <c r="D21" s="7">
-        <v>24216</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>42</v>
-      </c>
-      <c r="I21" s="7">
-        <v>28455</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>75</v>
-      </c>
-      <c r="N21" s="7">
-        <v>52671</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
